--- a/flowdata/accepted_d10.xlsx
+++ b/flowdata/accepted_d10.xlsx
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -180,6 +180,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +573,241 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1021726655671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1308999206681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1643305211146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1666112234132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1666112234134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1691467583098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2956017120958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3418365613332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3682359402484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4301184849197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>5421221417307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>6054609733807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>6180269411960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>6251851295775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>6406167790671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>6500176678507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>6605538104564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>6625314259616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>6723880732395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>6901135634117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>7137912666778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>7384038948720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>7582945654979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>7712273891506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>8029112596443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>8808960723409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>9143597840334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>9411150472667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>9429513529565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>9568330583497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>9899779148996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>9899779218996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>9904414961333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>9253001101803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>3682359402484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>8029112596445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>8029112596421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>8808960721109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>8228960723409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>8808440723409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>8808441423409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>9899779228996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9899779118996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>1308129206681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>1308997806681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>1308991106681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>8808441420009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
